--- a/Code/Results/Cases/Case_0_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9911737559125063</v>
+        <v>1.019786254444271</v>
       </c>
       <c r="D2">
-        <v>0.9998610366513351</v>
+        <v>1.021667955964333</v>
       </c>
       <c r="E2">
-        <v>0.9988923096456402</v>
+        <v>1.020882804103955</v>
       </c>
       <c r="F2">
-        <v>1.000449894944111</v>
+        <v>1.031234167892764</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043882013283151</v>
+        <v>1.030286179517262</v>
       </c>
       <c r="J2">
-        <v>1.01362170182249</v>
+        <v>1.024987050163701</v>
       </c>
       <c r="K2">
-        <v>1.011322307793074</v>
+        <v>1.024504607845297</v>
       </c>
       <c r="L2">
-        <v>1.010367097955213</v>
+        <v>1.023721774825712</v>
       </c>
       <c r="M2">
-        <v>1.011902965571132</v>
+        <v>1.034042875587482</v>
       </c>
       <c r="N2">
-        <v>1.008608229226548</v>
+        <v>1.012421919586851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9952823033087501</v>
+        <v>1.020642677840024</v>
       </c>
       <c r="D3">
-        <v>1.003137936403781</v>
+        <v>1.022396566376474</v>
       </c>
       <c r="E3">
-        <v>1.002126470997204</v>
+        <v>1.021606293077644</v>
       </c>
       <c r="F3">
-        <v>1.005449321968289</v>
+        <v>1.032334060470297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044982829737326</v>
+        <v>1.030422133234464</v>
       </c>
       <c r="J3">
-        <v>1.015902408965276</v>
+        <v>1.025480865545884</v>
       </c>
       <c r="K3">
-        <v>1.013730823583361</v>
+        <v>1.025039933399137</v>
       </c>
       <c r="L3">
-        <v>1.012732215345273</v>
+        <v>1.024251825196676</v>
       </c>
       <c r="M3">
-        <v>1.016012949310968</v>
+        <v>1.034950508031661</v>
       </c>
       <c r="N3">
-        <v>1.009364339829921</v>
+        <v>1.012585179699097</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9978862510774117</v>
+        <v>1.021196995546405</v>
       </c>
       <c r="D4">
-        <v>1.005219941817973</v>
+        <v>1.02286847738142</v>
       </c>
       <c r="E4">
-        <v>1.004182255318738</v>
+        <v>1.022074981723298</v>
       </c>
       <c r="F4">
-        <v>1.008615825779697</v>
+        <v>1.033045795754188</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045664125645855</v>
+        <v>1.030508115131108</v>
       </c>
       <c r="J4">
-        <v>1.017344181754808</v>
+        <v>1.025799927803328</v>
       </c>
       <c r="K4">
-        <v>1.015255772361936</v>
+        <v>1.025386110327352</v>
       </c>
       <c r="L4">
-        <v>1.014230464922439</v>
+        <v>1.024594679048059</v>
       </c>
       <c r="M4">
-        <v>1.018611365768546</v>
+        <v>1.03553725436047</v>
       </c>
       <c r="N4">
-        <v>1.009842292364777</v>
+        <v>1.01269064711715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9989683204004127</v>
+        <v>1.021430066470391</v>
       </c>
       <c r="D5">
-        <v>1.006086316064553</v>
+        <v>1.023066975319</v>
       </c>
       <c r="E5">
-        <v>1.005037939749792</v>
+        <v>1.022272146883831</v>
       </c>
       <c r="F5">
-        <v>1.009931218815642</v>
+        <v>1.033345016166604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045943255358617</v>
+        <v>1.03054378493475</v>
       </c>
       <c r="J5">
-        <v>1.017942389950668</v>
+        <v>1.025933948175471</v>
       </c>
       <c r="K5">
-        <v>1.015889064019389</v>
+        <v>1.025531590620168</v>
       </c>
       <c r="L5">
-        <v>1.014852854921226</v>
+        <v>1.02473878394115</v>
       </c>
       <c r="M5">
-        <v>1.019689610653915</v>
+        <v>1.035783789538469</v>
       </c>
       <c r="N5">
-        <v>1.010040591463493</v>
+        <v>1.012734943882475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991492760842579</v>
+        <v>1.021469202165328</v>
       </c>
       <c r="D6">
-        <v>1.006231270185067</v>
+        <v>1.023100310200547</v>
       </c>
       <c r="E6">
-        <v>1.005181118291399</v>
+        <v>1.022305259270193</v>
       </c>
       <c r="F6">
-        <v>1.010151168690881</v>
+        <v>1.033395256978118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045989698956155</v>
+        <v>1.030549746058976</v>
       </c>
       <c r="J6">
-        <v>1.018042374070936</v>
+        <v>1.025956444105272</v>
       </c>
       <c r="K6">
-        <v>1.015994945699062</v>
+        <v>1.025556014290432</v>
       </c>
       <c r="L6">
-        <v>1.014956924854904</v>
+        <v>1.02476297794364</v>
       </c>
       <c r="M6">
-        <v>1.019869837605306</v>
+        <v>1.035825176061391</v>
       </c>
       <c r="N6">
-        <v>1.010073734472176</v>
+        <v>1.012742379045984</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9979007588136573</v>
+        <v>1.02120010971253</v>
       </c>
       <c r="D7">
-        <v>1.005231552959639</v>
+        <v>1.022871129303804</v>
       </c>
       <c r="E7">
-        <v>1.004193722324393</v>
+        <v>1.022077615751006</v>
       </c>
       <c r="F7">
-        <v>1.008633463477685</v>
+        <v>1.033049793925619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045667883848892</v>
+        <v>1.030508593627958</v>
       </c>
       <c r="J7">
-        <v>1.017352205843476</v>
+        <v>1.025801719037012</v>
       </c>
       <c r="K7">
-        <v>1.015264264777308</v>
+        <v>1.025388054449823</v>
       </c>
       <c r="L7">
-        <v>1.014238810412014</v>
+        <v>1.024596604707414</v>
       </c>
       <c r="M7">
-        <v>1.0186258282326</v>
+        <v>1.035540549098994</v>
       </c>
       <c r="N7">
-        <v>1.009844952294757</v>
+        <v>1.012691239177164</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9925738213752424</v>
+        <v>1.02007565401299</v>
       </c>
       <c r="D8">
-        <v>1.000976600259519</v>
+        <v>1.021914098908799</v>
       </c>
       <c r="E8">
-        <v>0.9999931268010154</v>
+        <v>1.02112719726819</v>
       </c>
       <c r="F8">
-        <v>1.002154011433031</v>
+        <v>1.031605874924253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044260543530838</v>
+        <v>1.030332537147623</v>
       </c>
       <c r="J8">
-        <v>1.014399656511426</v>
+        <v>1.025154033931996</v>
       </c>
       <c r="K8">
-        <v>1.012143359105002</v>
+        <v>1.024685567355497</v>
       </c>
       <c r="L8">
-        <v>1.011173191189021</v>
+        <v>1.023900932861408</v>
       </c>
       <c r="M8">
-        <v>1.013304884107447</v>
+        <v>1.034349728215067</v>
       </c>
       <c r="N8">
-        <v>1.008866145845032</v>
+        <v>1.012477129661598</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.982748752696496</v>
+        <v>1.018095456588025</v>
       </c>
       <c r="D9">
-        <v>0.9931714800002895</v>
+        <v>1.020231211871722</v>
       </c>
       <c r="E9">
-        <v>0.9922952336933077</v>
+        <v>1.019456663159834</v>
       </c>
       <c r="F9">
-        <v>0.990184172724225</v>
+        <v>1.029061769260504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041536658316273</v>
+        <v>1.030007100834324</v>
       </c>
       <c r="J9">
-        <v>1.008925757885082</v>
+        <v>1.024009181471641</v>
       </c>
       <c r="K9">
-        <v>1.006376325321932</v>
+        <v>1.023446102345842</v>
       </c>
       <c r="L9">
-        <v>1.005514564608659</v>
+        <v>1.022674168984361</v>
       </c>
       <c r="M9">
-        <v>1.00343853807345</v>
+        <v>1.032247147806895</v>
       </c>
       <c r="N9">
-        <v>1.007051309665555</v>
+        <v>1.012098534214054</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9758735316320528</v>
+        <v>1.016776227962107</v>
       </c>
       <c r="D10">
-        <v>0.9877413920116398</v>
+        <v>1.019111743834431</v>
       </c>
       <c r="E10">
-        <v>0.9869450218955722</v>
+        <v>1.01834590335166</v>
       </c>
       <c r="F10">
-        <v>0.9817912913162992</v>
+        <v>1.027365906701585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039546961242022</v>
+        <v>1.029779965716026</v>
       </c>
       <c r="J10">
-        <v>1.00507819467836</v>
+        <v>1.023243621491415</v>
       </c>
       <c r="K10">
-        <v>1.002335563903</v>
+        <v>1.022618787586071</v>
       </c>
       <c r="L10">
-        <v>1.001554057627185</v>
+        <v>1.021855786914954</v>
       </c>
       <c r="M10">
-        <v>0.996497280880411</v>
+        <v>1.030842640191943</v>
       </c>
       <c r="N10">
-        <v>1.005775663319268</v>
+        <v>1.011845280015157</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9728119833025076</v>
+        <v>1.016205216124841</v>
       </c>
       <c r="D11">
-        <v>0.9853315095381485</v>
+        <v>1.018627602824886</v>
       </c>
       <c r="E11">
-        <v>0.9845718883172512</v>
+        <v>1.017865645521788</v>
       </c>
       <c r="F11">
-        <v>0.9780489599241394</v>
+        <v>1.026631634169836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038641809071633</v>
+        <v>1.029679208626027</v>
       </c>
       <c r="J11">
-        <v>1.003361248447163</v>
+        <v>1.022911586635257</v>
       </c>
       <c r="K11">
-        <v>1.000535457126439</v>
+        <v>1.022260326549891</v>
       </c>
       <c r="L11">
-        <v>0.9997907415926786</v>
+        <v>1.021501304241113</v>
       </c>
       <c r="M11">
-        <v>0.9933970631643387</v>
+        <v>1.030233818847158</v>
       </c>
       <c r="N11">
-        <v>1.00520643653425</v>
+        <v>1.011735419286414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9716614094746446</v>
+        <v>1.015993151505803</v>
       </c>
       <c r="D12">
-        <v>0.9844271220196483</v>
+        <v>1.018447862300008</v>
       </c>
       <c r="E12">
-        <v>0.9836814917161874</v>
+        <v>1.017687364302221</v>
       </c>
       <c r="F12">
-        <v>0.9766417010666735</v>
+        <v>1.026358900055878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03829882518413</v>
+        <v>1.029641422137962</v>
       </c>
       <c r="J12">
-        <v>1.002715490489126</v>
+        <v>1.022788173598774</v>
       </c>
       <c r="K12">
-        <v>0.9998588815295345</v>
+        <v>1.022127144935987</v>
       </c>
       <c r="L12">
-        <v>0.9991281517861984</v>
+        <v>1.021369616969531</v>
       </c>
       <c r="M12">
-        <v>0.9922305217039594</v>
+        <v>1.030007576755919</v>
       </c>
       <c r="N12">
-        <v>1.004992350692369</v>
+        <v>1.011694582421529</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9719088282854478</v>
+        <v>1.016038638502731</v>
       </c>
       <c r="D13">
-        <v>0.9846215422310186</v>
+        <v>1.018486413111408</v>
       </c>
       <c r="E13">
-        <v>0.9838728951395496</v>
+        <v>1.017725601321653</v>
       </c>
       <c r="F13">
-        <v>0.9769443566504367</v>
+        <v>1.02641740210937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038372706452885</v>
+        <v>1.029649543785055</v>
       </c>
       <c r="J13">
-        <v>1.00285437612683</v>
+        <v>1.022814649741597</v>
       </c>
       <c r="K13">
-        <v>1.000004374442633</v>
+        <v>1.022155714330585</v>
       </c>
       <c r="L13">
-        <v>0.999270629986458</v>
+        <v>1.021397865071254</v>
       </c>
       <c r="M13">
-        <v>0.9924814397725032</v>
+        <v>1.030056110913112</v>
       </c>
       <c r="N13">
-        <v>1.005038394688812</v>
+        <v>1.011703343406041</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9727171535179016</v>
+        <v>1.016187686084954</v>
       </c>
       <c r="D14">
-        <v>0.9852569439453648</v>
+        <v>1.018612743552221</v>
       </c>
       <c r="E14">
-        <v>0.9844984721705292</v>
+        <v>1.017850906530466</v>
       </c>
       <c r="F14">
-        <v>0.9779329918354536</v>
+        <v>1.02660908973018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038613597349689</v>
+        <v>1.029676092539882</v>
       </c>
       <c r="J14">
-        <v>1.00330803539679</v>
+        <v>1.022901386911879</v>
       </c>
       <c r="K14">
-        <v>1.000479695228438</v>
+        <v>1.022249318387727</v>
       </c>
       <c r="L14">
-        <v>0.9997361291529436</v>
+        <v>1.021490419263043</v>
       </c>
       <c r="M14">
-        <v>0.9933009467705163</v>
+        <v>1.030215119616843</v>
       </c>
       <c r="N14">
-        <v>1.005188794884197</v>
+        <v>1.011732044302265</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9732133955035989</v>
+        <v>1.016279523838022</v>
       </c>
       <c r="D15">
-        <v>0.9856471964603244</v>
+        <v>1.018690592008328</v>
       </c>
       <c r="E15">
-        <v>0.984882717022852</v>
+        <v>1.017928125550008</v>
       </c>
       <c r="F15">
-        <v>0.9785398153830341</v>
+        <v>1.026727195789469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038761114245579</v>
+        <v>1.029692402311873</v>
       </c>
       <c r="J15">
-        <v>1.003586477665391</v>
+        <v>1.022954817906201</v>
       </c>
       <c r="K15">
-        <v>1.000771493322625</v>
+        <v>1.022306986566065</v>
       </c>
       <c r="L15">
-        <v>1.00002191865946</v>
+        <v>1.02154744278477</v>
       </c>
       <c r="M15">
-        <v>0.9938038627845279</v>
+        <v>1.030313077057458</v>
       </c>
       <c r="N15">
-        <v>1.005281106692031</v>
+        <v>1.011749723946674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9760748786689356</v>
+        <v>1.016814128928221</v>
       </c>
       <c r="D16">
-        <v>0.987900055797194</v>
+        <v>1.019143887360904</v>
       </c>
       <c r="E16">
-        <v>0.9871012936600141</v>
+        <v>1.018377791535698</v>
       </c>
       <c r="F16">
-        <v>0.9820373000359053</v>
+        <v>1.027414638971532</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03960609621308</v>
+        <v>1.029786601996002</v>
       </c>
       <c r="J16">
-        <v>1.005191039909667</v>
+        <v>1.023265646208081</v>
       </c>
       <c r="K16">
-        <v>1.002453938446486</v>
+        <v>1.022642572746463</v>
       </c>
       <c r="L16">
-        <v>1.001670034607185</v>
+        <v>1.021879310372223</v>
       </c>
       <c r="M16">
-        <v>0.9967009745022389</v>
+        <v>1.030883031787848</v>
       </c>
       <c r="N16">
-        <v>1.005813076001903</v>
+        <v>1.011852566926063</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.977846715377593</v>
+        <v>1.017149533035071</v>
       </c>
       <c r="D17">
-        <v>0.9892972174343662</v>
+        <v>1.019428388165019</v>
       </c>
       <c r="E17">
-        <v>0.9884775403507086</v>
+        <v>1.018660045859083</v>
       </c>
       <c r="F17">
-        <v>0.9842015801897508</v>
+        <v>1.027845866763966</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04012430788141</v>
+        <v>1.029845047265693</v>
       </c>
       <c r="J17">
-        <v>1.006183660936633</v>
+        <v>1.023460476080201</v>
       </c>
       <c r="K17">
-        <v>1.003495544191982</v>
+        <v>1.022853016731969</v>
       </c>
       <c r="L17">
-        <v>1.002690662010166</v>
+        <v>1.02208745135826</v>
       </c>
       <c r="M17">
-        <v>0.9984924017471891</v>
+        <v>1.031240372885806</v>
       </c>
       <c r="N17">
-        <v>1.006142171967802</v>
+        <v>1.011917024313056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978872089862702</v>
+        <v>1.017345190004259</v>
       </c>
       <c r="D18">
-        <v>0.9901065337890714</v>
+        <v>1.019594390082577</v>
       </c>
       <c r="E18">
-        <v>0.9892748648306022</v>
+        <v>1.0188247482915</v>
       </c>
       <c r="F18">
-        <v>0.9854535996190404</v>
+        <v>1.028097399167695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040422380843523</v>
+        <v>1.029878905205903</v>
       </c>
       <c r="J18">
-        <v>1.006757751726963</v>
+        <v>1.023574064656216</v>
       </c>
       <c r="K18">
-        <v>1.004098254922682</v>
+        <v>1.022975743050415</v>
       </c>
       <c r="L18">
-        <v>1.003281332292474</v>
+        <v>1.022208845032223</v>
       </c>
       <c r="M18">
-        <v>0.9995282375397069</v>
+        <v>1.031448740164363</v>
       </c>
       <c r="N18">
-        <v>1.006332509250954</v>
+        <v>1.011954601897092</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9792203606647574</v>
+        <v>1.01741190757503</v>
       </c>
       <c r="D19">
-        <v>0.9903815487326696</v>
+        <v>1.019651002140283</v>
       </c>
       <c r="E19">
-        <v>0.9895458255798449</v>
+        <v>1.018880919097823</v>
       </c>
       <c r="F19">
-        <v>0.9858787746352899</v>
+        <v>1.028183165975612</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040523311545228</v>
+        <v>1.029890410483516</v>
       </c>
       <c r="J19">
-        <v>1.006952683146989</v>
+        <v>1.023612786508963</v>
       </c>
       <c r="K19">
-        <v>1.004302953220282</v>
+        <v>1.023017585772564</v>
       </c>
       <c r="L19">
-        <v>1.003481957934653</v>
+        <v>1.022250235164275</v>
       </c>
       <c r="M19">
-        <v>0.9998799141991965</v>
+        <v>1.031519777196384</v>
       </c>
       <c r="N19">
-        <v>1.006397138160625</v>
+        <v>1.011967411594673</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9776574574580518</v>
+        <v>1.017113545124078</v>
       </c>
       <c r="D20">
-        <v>0.9891479000789102</v>
+        <v>1.019397857972305</v>
       </c>
       <c r="E20">
-        <v>0.9883304454013704</v>
+        <v>1.018629755570153</v>
       </c>
       <c r="F20">
-        <v>0.9839704524576497</v>
+        <v>1.027799599632148</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040069143720226</v>
+        <v>1.029838800653712</v>
       </c>
       <c r="J20">
-        <v>1.006077670209598</v>
+        <v>1.023439578090874</v>
       </c>
       <c r="K20">
-        <v>1.003384292923879</v>
+        <v>1.022830440361848</v>
       </c>
       <c r="L20">
-        <v>1.002581641165716</v>
+        <v>1.022065120975917</v>
       </c>
       <c r="M20">
-        <v>0.9983011424396553</v>
+        <v>1.031202040157098</v>
       </c>
       <c r="N20">
-        <v>1.006107031341698</v>
+        <v>1.011910110641209</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9724794968818882</v>
+        <v>1.016143794322758</v>
       </c>
       <c r="D21">
-        <v>0.9850700930272985</v>
+        <v>1.018575539862346</v>
       </c>
       <c r="E21">
-        <v>0.9843145048365211</v>
+        <v>1.01781400427861</v>
       </c>
       <c r="F21">
-        <v>0.9776423458626232</v>
+        <v>1.02655264229682</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038542849715092</v>
+        <v>1.029668284548318</v>
       </c>
       <c r="J21">
-        <v>1.00317466808885</v>
+        <v>1.022875847191705</v>
       </c>
       <c r="K21">
-        <v>1.000339947179691</v>
+        <v>1.022221755234493</v>
       </c>
       <c r="L21">
-        <v>0.9995992643765027</v>
+        <v>1.021463164810645</v>
       </c>
       <c r="M21">
-        <v>0.9930600424388187</v>
+        <v>1.030168298238683</v>
       </c>
       <c r="N21">
-        <v>1.005144579892328</v>
+        <v>1.011723593420727</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9691461326371854</v>
+        <v>1.015534274250702</v>
       </c>
       <c r="D22">
-        <v>0.9824524554445506</v>
+        <v>1.018059043055907</v>
       </c>
       <c r="E22">
-        <v>0.9817377454122771</v>
+        <v>1.017301734194268</v>
       </c>
       <c r="F22">
-        <v>0.9735636374279872</v>
+        <v>1.025768673682623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037543918041549</v>
+        <v>1.029558987046415</v>
       </c>
       <c r="J22">
-        <v>1.001302910420531</v>
+        <v>1.02252094188937</v>
       </c>
       <c r="K22">
-        <v>0.9983797358856445</v>
+        <v>1.021838859035968</v>
       </c>
       <c r="L22">
-        <v>0.997679874753314</v>
+        <v>1.021084595432237</v>
       </c>
       <c r="M22">
-        <v>0.9896776470462498</v>
+        <v>1.029517772635122</v>
       </c>
       <c r="N22">
-        <v>1.004524054780479</v>
+        <v>1.011606150984537</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9709208234011698</v>
+        <v>1.015857372972199</v>
       </c>
       <c r="D23">
-        <v>0.9838453661963924</v>
+        <v>1.0183327973266</v>
       </c>
       <c r="E23">
-        <v>0.9831087925240392</v>
+        <v>1.017573238511596</v>
       </c>
       <c r="F23">
-        <v>0.9757356475222227</v>
+        <v>1.026184266102837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038077272404298</v>
+        <v>1.029617125346522</v>
       </c>
       <c r="J23">
-        <v>1.002299700278944</v>
+        <v>1.022709127688116</v>
       </c>
       <c r="K23">
-        <v>0.9994233782104578</v>
+        <v>1.022041857369722</v>
       </c>
       <c r="L23">
-        <v>0.9987016956845465</v>
+        <v>1.021285290929288</v>
       </c>
       <c r="M23">
-        <v>0.9914792475798513</v>
+        <v>1.02986268253966</v>
       </c>
       <c r="N23">
-        <v>1.004854506948826</v>
+        <v>1.011668425597627</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9777429999717872</v>
+        <v>1.017129806445842</v>
       </c>
       <c r="D24">
-        <v>0.9892153875136618</v>
+        <v>1.019411653074993</v>
       </c>
       <c r="E24">
-        <v>0.9883969279865362</v>
+        <v>1.018643442237132</v>
       </c>
       <c r="F24">
-        <v>0.9840749211041557</v>
+        <v>1.027820505743354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040094082965917</v>
+        <v>1.029841623946278</v>
       </c>
       <c r="J24">
-        <v>1.006125577937123</v>
+        <v>1.023449021154672</v>
       </c>
       <c r="K24">
-        <v>1.003434577515067</v>
+        <v>1.022840641720094</v>
       </c>
       <c r="L24">
-        <v>1.002630917320195</v>
+        <v>1.022075211149952</v>
       </c>
       <c r="M24">
-        <v>0.9983875922713822</v>
+        <v>1.03121936126404</v>
       </c>
       <c r="N24">
-        <v>1.006122914872257</v>
+        <v>1.011913234691645</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9853437288947721</v>
+        <v>1.01860723112564</v>
       </c>
       <c r="D25">
-        <v>0.9952276991041563</v>
+        <v>1.020665851932065</v>
       </c>
       <c r="E25">
-        <v>0.994322307270109</v>
+        <v>1.019888026408366</v>
       </c>
       <c r="F25">
-        <v>0.993348221701521</v>
+        <v>1.029719447113411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042270721420551</v>
+        <v>1.030093030956484</v>
       </c>
       <c r="J25">
-        <v>1.010374606441092</v>
+        <v>1.024305567504825</v>
       </c>
       <c r="K25">
-        <v>1.007900553414279</v>
+        <v>1.023766715685417</v>
       </c>
       <c r="L25">
-        <v>1.007009406194633</v>
+        <v>1.022991416781212</v>
       </c>
       <c r="M25">
-        <v>1.006050683126833</v>
+        <v>1.03279120926875</v>
       </c>
       <c r="N25">
-        <v>1.007531675682099</v>
+        <v>1.01219656287921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_229/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019786254444271</v>
+        <v>0.9911737559125058</v>
       </c>
       <c r="D2">
-        <v>1.021667955964333</v>
+        <v>0.9998610366513345</v>
       </c>
       <c r="E2">
-        <v>1.020882804103955</v>
+        <v>0.9988923096456395</v>
       </c>
       <c r="F2">
-        <v>1.031234167892764</v>
+        <v>1.00044989494411</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030286179517262</v>
+        <v>1.043882013283151</v>
       </c>
       <c r="J2">
-        <v>1.024987050163701</v>
+        <v>1.013621701822489</v>
       </c>
       <c r="K2">
-        <v>1.024504607845297</v>
+        <v>1.011322307793073</v>
       </c>
       <c r="L2">
-        <v>1.023721774825712</v>
+        <v>1.010367097955212</v>
       </c>
       <c r="M2">
-        <v>1.034042875587482</v>
+        <v>1.011902965571131</v>
       </c>
       <c r="N2">
-        <v>1.012421919586851</v>
+        <v>1.008608229226548</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020642677840024</v>
+        <v>0.9952823033087492</v>
       </c>
       <c r="D3">
-        <v>1.022396566376474</v>
+        <v>1.00313793640378</v>
       </c>
       <c r="E3">
-        <v>1.021606293077644</v>
+        <v>1.002126470997203</v>
       </c>
       <c r="F3">
-        <v>1.032334060470297</v>
+        <v>1.005449321968287</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030422133234464</v>
+        <v>1.044982829737326</v>
       </c>
       <c r="J3">
-        <v>1.025480865545884</v>
+        <v>1.015902408965275</v>
       </c>
       <c r="K3">
-        <v>1.025039933399137</v>
+        <v>1.01373082358336</v>
       </c>
       <c r="L3">
-        <v>1.024251825196676</v>
+        <v>1.012732215345272</v>
       </c>
       <c r="M3">
-        <v>1.034950508031661</v>
+        <v>1.016012949310967</v>
       </c>
       <c r="N3">
-        <v>1.012585179699097</v>
+        <v>1.009364339829921</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021196995546405</v>
+        <v>0.9978862510774117</v>
       </c>
       <c r="D4">
-        <v>1.02286847738142</v>
+        <v>1.005219941817974</v>
       </c>
       <c r="E4">
-        <v>1.022074981723298</v>
+        <v>1.004182255318738</v>
       </c>
       <c r="F4">
-        <v>1.033045795754188</v>
+        <v>1.008615825779697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030508115131108</v>
+        <v>1.045664125645855</v>
       </c>
       <c r="J4">
-        <v>1.025799927803328</v>
+        <v>1.017344181754808</v>
       </c>
       <c r="K4">
-        <v>1.025386110327352</v>
+        <v>1.015255772361937</v>
       </c>
       <c r="L4">
-        <v>1.024594679048059</v>
+        <v>1.014230464922439</v>
       </c>
       <c r="M4">
-        <v>1.03553725436047</v>
+        <v>1.018611365768546</v>
       </c>
       <c r="N4">
-        <v>1.01269064711715</v>
+        <v>1.009842292364777</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021430066470391</v>
+        <v>0.9989683204004128</v>
       </c>
       <c r="D5">
-        <v>1.023066975319</v>
+        <v>1.006086316064553</v>
       </c>
       <c r="E5">
-        <v>1.022272146883831</v>
+        <v>1.005037939749792</v>
       </c>
       <c r="F5">
-        <v>1.033345016166604</v>
+        <v>1.009931218815642</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03054378493475</v>
+        <v>1.045943255358617</v>
       </c>
       <c r="J5">
-        <v>1.025933948175471</v>
+        <v>1.017942389950668</v>
       </c>
       <c r="K5">
-        <v>1.025531590620168</v>
+        <v>1.015889064019389</v>
       </c>
       <c r="L5">
-        <v>1.02473878394115</v>
+        <v>1.014852854921226</v>
       </c>
       <c r="M5">
-        <v>1.035783789538469</v>
+        <v>1.019689610653915</v>
       </c>
       <c r="N5">
-        <v>1.012734943882475</v>
+        <v>1.010040591463493</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021469202165328</v>
+        <v>0.9991492760842586</v>
       </c>
       <c r="D6">
-        <v>1.023100310200547</v>
+        <v>1.006231270185067</v>
       </c>
       <c r="E6">
-        <v>1.022305259270193</v>
+        <v>1.0051811182914</v>
       </c>
       <c r="F6">
-        <v>1.033395256978118</v>
+        <v>1.010151168690882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030549746058976</v>
+        <v>1.045989698956156</v>
       </c>
       <c r="J6">
-        <v>1.025956444105272</v>
+        <v>1.018042374070937</v>
       </c>
       <c r="K6">
-        <v>1.025556014290432</v>
+        <v>1.015994945699062</v>
       </c>
       <c r="L6">
-        <v>1.02476297794364</v>
+        <v>1.014956924854904</v>
       </c>
       <c r="M6">
-        <v>1.035825176061391</v>
+        <v>1.019869837605307</v>
       </c>
       <c r="N6">
-        <v>1.012742379045984</v>
+        <v>1.010073734472176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02120010971253</v>
+        <v>0.9979007588136571</v>
       </c>
       <c r="D7">
-        <v>1.022871129303804</v>
+        <v>1.005231552959639</v>
       </c>
       <c r="E7">
-        <v>1.022077615751006</v>
+        <v>1.004193722324392</v>
       </c>
       <c r="F7">
-        <v>1.033049793925619</v>
+        <v>1.008633463477685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030508593627958</v>
+        <v>1.045667883848892</v>
       </c>
       <c r="J7">
-        <v>1.025801719037012</v>
+        <v>1.017352205843476</v>
       </c>
       <c r="K7">
-        <v>1.025388054449823</v>
+        <v>1.015264264777309</v>
       </c>
       <c r="L7">
-        <v>1.024596604707414</v>
+        <v>1.014238810412013</v>
       </c>
       <c r="M7">
-        <v>1.035540549098994</v>
+        <v>1.0186258282326</v>
       </c>
       <c r="N7">
-        <v>1.012691239177164</v>
+        <v>1.009844952294757</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02007565401299</v>
+        <v>0.9925738213752427</v>
       </c>
       <c r="D8">
-        <v>1.021914098908799</v>
+        <v>1.000976600259519</v>
       </c>
       <c r="E8">
-        <v>1.02112719726819</v>
+        <v>0.9999931268010157</v>
       </c>
       <c r="F8">
-        <v>1.031605874924253</v>
+        <v>1.002154011433032</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030332537147623</v>
+        <v>1.044260543530839</v>
       </c>
       <c r="J8">
-        <v>1.025154033931996</v>
+        <v>1.014399656511426</v>
       </c>
       <c r="K8">
-        <v>1.024685567355497</v>
+        <v>1.012143359105002</v>
       </c>
       <c r="L8">
-        <v>1.023900932861408</v>
+        <v>1.011173191189021</v>
       </c>
       <c r="M8">
-        <v>1.034349728215067</v>
+        <v>1.013304884107448</v>
       </c>
       <c r="N8">
-        <v>1.012477129661598</v>
+        <v>1.008866145845032</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018095456588025</v>
+        <v>0.982748752696496</v>
       </c>
       <c r="D9">
-        <v>1.020231211871722</v>
+        <v>0.9931714800002899</v>
       </c>
       <c r="E9">
-        <v>1.019456663159834</v>
+        <v>0.9922952336933077</v>
       </c>
       <c r="F9">
-        <v>1.029061769260504</v>
+        <v>0.9901841727242245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030007100834324</v>
+        <v>1.041536658316273</v>
       </c>
       <c r="J9">
-        <v>1.024009181471641</v>
+        <v>1.008925757885082</v>
       </c>
       <c r="K9">
-        <v>1.023446102345842</v>
+        <v>1.006376325321932</v>
       </c>
       <c r="L9">
-        <v>1.022674168984361</v>
+        <v>1.005514564608659</v>
       </c>
       <c r="M9">
-        <v>1.032247147806895</v>
+        <v>1.00343853807345</v>
       </c>
       <c r="N9">
-        <v>1.012098534214054</v>
+        <v>1.007051309665555</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016776227962107</v>
+        <v>0.975873531632052</v>
       </c>
       <c r="D10">
-        <v>1.019111743834431</v>
+        <v>0.987741392011639</v>
       </c>
       <c r="E10">
-        <v>1.01834590335166</v>
+        <v>0.9869450218955715</v>
       </c>
       <c r="F10">
-        <v>1.027365906701585</v>
+        <v>0.9817912913162985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029779965716026</v>
+        <v>1.039546961242022</v>
       </c>
       <c r="J10">
-        <v>1.023243621491415</v>
+        <v>1.00507819467836</v>
       </c>
       <c r="K10">
-        <v>1.022618787586071</v>
+        <v>1.002335563902999</v>
       </c>
       <c r="L10">
-        <v>1.021855786914954</v>
+        <v>1.001554057627184</v>
       </c>
       <c r="M10">
-        <v>1.030842640191943</v>
+        <v>0.9964972808804102</v>
       </c>
       <c r="N10">
-        <v>1.011845280015157</v>
+        <v>1.005775663319267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016205216124841</v>
+        <v>0.972811983302507</v>
       </c>
       <c r="D11">
-        <v>1.018627602824886</v>
+        <v>0.9853315095381479</v>
       </c>
       <c r="E11">
-        <v>1.017865645521788</v>
+        <v>0.9845718883172506</v>
       </c>
       <c r="F11">
-        <v>1.026631634169836</v>
+        <v>0.9780489599241391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029679208626027</v>
+        <v>1.038641809071633</v>
       </c>
       <c r="J11">
-        <v>1.022911586635257</v>
+        <v>1.003361248447163</v>
       </c>
       <c r="K11">
-        <v>1.022260326549891</v>
+        <v>1.000535457126438</v>
       </c>
       <c r="L11">
-        <v>1.021501304241113</v>
+        <v>0.9997907415926781</v>
       </c>
       <c r="M11">
-        <v>1.030233818847158</v>
+        <v>0.9933970631643384</v>
       </c>
       <c r="N11">
-        <v>1.011735419286414</v>
+        <v>1.00520643653425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015993151505803</v>
+        <v>0.9716614094746443</v>
       </c>
       <c r="D12">
-        <v>1.018447862300008</v>
+        <v>0.9844271220196485</v>
       </c>
       <c r="E12">
-        <v>1.017687364302221</v>
+        <v>0.9836814917161874</v>
       </c>
       <c r="F12">
-        <v>1.026358900055878</v>
+        <v>0.9766417010666733</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029641422137962</v>
+        <v>1.03829882518413</v>
       </c>
       <c r="J12">
-        <v>1.022788173598774</v>
+        <v>1.002715490489126</v>
       </c>
       <c r="K12">
-        <v>1.022127144935987</v>
+        <v>0.9998588815295345</v>
       </c>
       <c r="L12">
-        <v>1.021369616969531</v>
+        <v>0.9991281517861985</v>
       </c>
       <c r="M12">
-        <v>1.030007576755919</v>
+        <v>0.9922305217039592</v>
       </c>
       <c r="N12">
-        <v>1.011694582421529</v>
+        <v>1.004992350692369</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016038638502731</v>
+        <v>0.9719088282854472</v>
       </c>
       <c r="D13">
-        <v>1.018486413111408</v>
+        <v>0.9846215422310183</v>
       </c>
       <c r="E13">
-        <v>1.017725601321653</v>
+        <v>0.9838728951395489</v>
       </c>
       <c r="F13">
-        <v>1.02641740210937</v>
+        <v>0.9769443566504366</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029649543785055</v>
+        <v>1.038372706452885</v>
       </c>
       <c r="J13">
-        <v>1.022814649741597</v>
+        <v>1.00285437612683</v>
       </c>
       <c r="K13">
-        <v>1.022155714330585</v>
+        <v>1.000004374442632</v>
       </c>
       <c r="L13">
-        <v>1.021397865071254</v>
+        <v>0.9992706299864572</v>
       </c>
       <c r="M13">
-        <v>1.030056110913112</v>
+        <v>0.9924814397725032</v>
       </c>
       <c r="N13">
-        <v>1.011703343406041</v>
+        <v>1.005038394688812</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016187686084954</v>
+        <v>0.9727171535179019</v>
       </c>
       <c r="D14">
-        <v>1.018612743552221</v>
+        <v>0.9852569439453653</v>
       </c>
       <c r="E14">
-        <v>1.017850906530466</v>
+        <v>0.9844984721705297</v>
       </c>
       <c r="F14">
-        <v>1.02660908973018</v>
+        <v>0.977932991835454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029676092539882</v>
+        <v>1.038613597349689</v>
       </c>
       <c r="J14">
-        <v>1.022901386911879</v>
+        <v>1.00330803539679</v>
       </c>
       <c r="K14">
-        <v>1.022249318387727</v>
+        <v>1.000479695228438</v>
       </c>
       <c r="L14">
-        <v>1.021490419263043</v>
+        <v>0.9997361291529441</v>
       </c>
       <c r="M14">
-        <v>1.030215119616843</v>
+        <v>0.9933009467705168</v>
       </c>
       <c r="N14">
-        <v>1.011732044302265</v>
+        <v>1.005188794884197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016279523838022</v>
+        <v>0.9732133955035983</v>
       </c>
       <c r="D15">
-        <v>1.018690592008328</v>
+        <v>0.9856471964603238</v>
       </c>
       <c r="E15">
-        <v>1.017928125550008</v>
+        <v>0.9848827170228517</v>
       </c>
       <c r="F15">
-        <v>1.026727195789469</v>
+        <v>0.9785398153830341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029692402311873</v>
+        <v>1.038761114245578</v>
       </c>
       <c r="J15">
-        <v>1.022954817906201</v>
+        <v>1.003586477665391</v>
       </c>
       <c r="K15">
-        <v>1.022306986566065</v>
+        <v>1.000771493322624</v>
       </c>
       <c r="L15">
-        <v>1.02154744278477</v>
+        <v>1.000021918659459</v>
       </c>
       <c r="M15">
-        <v>1.030313077057458</v>
+        <v>0.9938038627845277</v>
       </c>
       <c r="N15">
-        <v>1.011749723946674</v>
+        <v>1.005281106692031</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016814128928221</v>
+        <v>0.9760748786689356</v>
       </c>
       <c r="D16">
-        <v>1.019143887360904</v>
+        <v>0.9879000557971944</v>
       </c>
       <c r="E16">
-        <v>1.018377791535698</v>
+        <v>0.9871012936600144</v>
       </c>
       <c r="F16">
-        <v>1.027414638971532</v>
+        <v>0.9820373000359055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029786601996002</v>
+        <v>1.03960609621308</v>
       </c>
       <c r="J16">
-        <v>1.023265646208081</v>
+        <v>1.005191039909667</v>
       </c>
       <c r="K16">
-        <v>1.022642572746463</v>
+        <v>1.002453938446487</v>
       </c>
       <c r="L16">
-        <v>1.021879310372223</v>
+        <v>1.001670034607186</v>
       </c>
       <c r="M16">
-        <v>1.030883031787848</v>
+        <v>0.9967009745022393</v>
       </c>
       <c r="N16">
-        <v>1.011852566926063</v>
+        <v>1.005813076001903</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017149533035071</v>
+        <v>0.9778467153775925</v>
       </c>
       <c r="D17">
-        <v>1.019428388165019</v>
+        <v>0.9892972174343659</v>
       </c>
       <c r="E17">
-        <v>1.018660045859083</v>
+        <v>0.9884775403507085</v>
       </c>
       <c r="F17">
-        <v>1.027845866763966</v>
+        <v>0.9842015801897505</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029845047265693</v>
+        <v>1.04012430788141</v>
       </c>
       <c r="J17">
-        <v>1.023460476080201</v>
+        <v>1.006183660936632</v>
       </c>
       <c r="K17">
-        <v>1.022853016731969</v>
+        <v>1.003495544191981</v>
       </c>
       <c r="L17">
-        <v>1.02208745135826</v>
+        <v>1.002690662010166</v>
       </c>
       <c r="M17">
-        <v>1.031240372885806</v>
+        <v>0.9984924017471889</v>
       </c>
       <c r="N17">
-        <v>1.011917024313056</v>
+        <v>1.006142171967802</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017345190004259</v>
+        <v>0.9788720898627019</v>
       </c>
       <c r="D18">
-        <v>1.019594390082577</v>
+        <v>0.9901065337890713</v>
       </c>
       <c r="E18">
-        <v>1.0188247482915</v>
+        <v>0.9892748648306019</v>
       </c>
       <c r="F18">
-        <v>1.028097399167695</v>
+        <v>0.9854535996190403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029878905205903</v>
+        <v>1.040422380843523</v>
       </c>
       <c r="J18">
-        <v>1.023574064656216</v>
+        <v>1.006757751726962</v>
       </c>
       <c r="K18">
-        <v>1.022975743050415</v>
+        <v>1.004098254922682</v>
       </c>
       <c r="L18">
-        <v>1.022208845032223</v>
+        <v>1.003281332292474</v>
       </c>
       <c r="M18">
-        <v>1.031448740164363</v>
+        <v>0.999528237539707</v>
       </c>
       <c r="N18">
-        <v>1.011954601897092</v>
+        <v>1.006332509250954</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01741190757503</v>
+        <v>0.9792203606647564</v>
       </c>
       <c r="D19">
-        <v>1.019651002140283</v>
+        <v>0.9903815487326687</v>
       </c>
       <c r="E19">
-        <v>1.018880919097823</v>
+        <v>0.9895458255798441</v>
       </c>
       <c r="F19">
-        <v>1.028183165975612</v>
+        <v>0.9858787746352888</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029890410483516</v>
+        <v>1.040523311545227</v>
       </c>
       <c r="J19">
-        <v>1.023612786508963</v>
+        <v>1.006952683146989</v>
       </c>
       <c r="K19">
-        <v>1.023017585772564</v>
+        <v>1.004302953220281</v>
       </c>
       <c r="L19">
-        <v>1.022250235164275</v>
+        <v>1.003481957934651</v>
       </c>
       <c r="M19">
-        <v>1.031519777196384</v>
+        <v>0.9998799141991954</v>
       </c>
       <c r="N19">
-        <v>1.011967411594673</v>
+        <v>1.006397138160625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017113545124078</v>
+        <v>0.9776574574580515</v>
       </c>
       <c r="D20">
-        <v>1.019397857972305</v>
+        <v>0.98914790007891</v>
       </c>
       <c r="E20">
-        <v>1.018629755570153</v>
+        <v>0.9883304454013701</v>
       </c>
       <c r="F20">
-        <v>1.027799599632148</v>
+        <v>0.9839704524576496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029838800653712</v>
+        <v>1.040069143720225</v>
       </c>
       <c r="J20">
-        <v>1.023439578090874</v>
+        <v>1.006077670209598</v>
       </c>
       <c r="K20">
-        <v>1.022830440361848</v>
+        <v>1.003384292923879</v>
       </c>
       <c r="L20">
-        <v>1.022065120975917</v>
+        <v>1.002581641165715</v>
       </c>
       <c r="M20">
-        <v>1.031202040157098</v>
+        <v>0.9983011424396552</v>
       </c>
       <c r="N20">
-        <v>1.011910110641209</v>
+        <v>1.006107031341698</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016143794322758</v>
+        <v>0.9724794968818891</v>
       </c>
       <c r="D21">
-        <v>1.018575539862346</v>
+        <v>0.9850700930272994</v>
       </c>
       <c r="E21">
-        <v>1.01781400427861</v>
+        <v>0.9843145048365218</v>
       </c>
       <c r="F21">
-        <v>1.02655264229682</v>
+        <v>0.9776423458626241</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029668284548318</v>
+        <v>1.038542849715093</v>
       </c>
       <c r="J21">
-        <v>1.022875847191705</v>
+        <v>1.00317466808885</v>
       </c>
       <c r="K21">
-        <v>1.022221755234493</v>
+        <v>1.000339947179692</v>
       </c>
       <c r="L21">
-        <v>1.021463164810645</v>
+        <v>0.9995992643765035</v>
       </c>
       <c r="M21">
-        <v>1.030168298238683</v>
+        <v>0.9930600424388196</v>
       </c>
       <c r="N21">
-        <v>1.011723593420727</v>
+        <v>1.005144579892328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015534274250702</v>
+        <v>0.9691461326371849</v>
       </c>
       <c r="D22">
-        <v>1.018059043055907</v>
+        <v>0.9824524554445503</v>
       </c>
       <c r="E22">
-        <v>1.017301734194268</v>
+        <v>0.9817377454122768</v>
       </c>
       <c r="F22">
-        <v>1.025768673682623</v>
+        <v>0.9735636374279864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029558987046415</v>
+        <v>1.037543918041549</v>
       </c>
       <c r="J22">
-        <v>1.02252094188937</v>
+        <v>1.00130291042053</v>
       </c>
       <c r="K22">
-        <v>1.021838859035968</v>
+        <v>0.9983797358856441</v>
       </c>
       <c r="L22">
-        <v>1.021084595432237</v>
+        <v>0.9976798747533135</v>
       </c>
       <c r="M22">
-        <v>1.029517772635122</v>
+        <v>0.9896776470462489</v>
       </c>
       <c r="N22">
-        <v>1.011606150984537</v>
+        <v>1.004524054780479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015857372972199</v>
+        <v>0.9709208234011686</v>
       </c>
       <c r="D23">
-        <v>1.0183327973266</v>
+        <v>0.9838453661963915</v>
       </c>
       <c r="E23">
-        <v>1.017573238511596</v>
+        <v>0.983108792524038</v>
       </c>
       <c r="F23">
-        <v>1.026184266102837</v>
+        <v>0.9757356475222217</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029617125346522</v>
+        <v>1.038077272404298</v>
       </c>
       <c r="J23">
-        <v>1.022709127688116</v>
+        <v>1.002299700278942</v>
       </c>
       <c r="K23">
-        <v>1.022041857369722</v>
+        <v>0.9994233782104568</v>
       </c>
       <c r="L23">
-        <v>1.021285290929288</v>
+        <v>0.9987016956845455</v>
       </c>
       <c r="M23">
-        <v>1.02986268253966</v>
+        <v>0.9914792475798504</v>
       </c>
       <c r="N23">
-        <v>1.011668425597627</v>
+        <v>1.004854506948826</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017129806445842</v>
+        <v>0.9777429999717866</v>
       </c>
       <c r="D24">
-        <v>1.019411653074993</v>
+        <v>0.9892153875136613</v>
       </c>
       <c r="E24">
-        <v>1.018643442237132</v>
+        <v>0.9883969279865356</v>
       </c>
       <c r="F24">
-        <v>1.027820505743354</v>
+        <v>0.9840749211041554</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029841623946278</v>
+        <v>1.040094082965916</v>
       </c>
       <c r="J24">
-        <v>1.023449021154672</v>
+        <v>1.006125577937122</v>
       </c>
       <c r="K24">
-        <v>1.022840641720094</v>
+        <v>1.003434577515067</v>
       </c>
       <c r="L24">
-        <v>1.022075211149952</v>
+        <v>1.002630917320194</v>
       </c>
       <c r="M24">
-        <v>1.03121936126404</v>
+        <v>0.9983875922713819</v>
       </c>
       <c r="N24">
-        <v>1.011913234691645</v>
+        <v>1.006122914872257</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01860723112564</v>
+        <v>0.9853437288947716</v>
       </c>
       <c r="D25">
-        <v>1.020665851932065</v>
+        <v>0.9952276991041559</v>
       </c>
       <c r="E25">
-        <v>1.019888026408366</v>
+        <v>0.9943223072701084</v>
       </c>
       <c r="F25">
-        <v>1.029719447113411</v>
+        <v>0.9933482217015207</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030093030956484</v>
+        <v>1.042270721420551</v>
       </c>
       <c r="J25">
-        <v>1.024305567504825</v>
+        <v>1.010374606441091</v>
       </c>
       <c r="K25">
-        <v>1.023766715685417</v>
+        <v>1.007900553414278</v>
       </c>
       <c r="L25">
-        <v>1.022991416781212</v>
+        <v>1.007009406194633</v>
       </c>
       <c r="M25">
-        <v>1.03279120926875</v>
+        <v>1.006050683126833</v>
       </c>
       <c r="N25">
-        <v>1.01219656287921</v>
+        <v>1.007531675682099</v>
       </c>
     </row>
   </sheetData>
